--- a/xlsx/ca-_intext.xlsx
+++ b/xlsx/ca-_intext.xlsx
@@ -29,7 +29,7 @@
     <t>Viquipèdia</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_ca-</t>
+    <t>政策_政策_维基百科_ca-</t>
   </si>
   <si>
     <t>https://ca.wikipedia.org/wiki/Viquip%C3%A8dia:Condicions_d%27%C3%BAs</t>
@@ -2798,7 +2798,7 @@
         <v>86</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" t="s">
         <v>4</v>
@@ -3233,7 +3233,7 @@
         <v>116</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60" t="s">
         <v>4</v>
